--- a/Dragonfall/gameData/shared/Buildings.xlsx
+++ b/Dragonfall/gameData/shared/Buildings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="740" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4540" yWindow="1540" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -440,7 +440,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -455,6 +455,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -591,7 +595,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="128">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -656,6 +660,8 @@
     <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -713,6 +719,8 @@
     <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1165,7 +1173,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
